--- a/test.xlsx
+++ b/test.xlsx
@@ -353,7 +353,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -368,7 +368,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2">
-        <v>234</v>
+        <v>34534</v>
       </c>
     </row>
   </sheetData>
